--- a/machines.xlsx
+++ b/machines.xlsx
@@ -37,175 +37,175 @@
     <t>https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem</t>
   </si>
   <si>
-    <t>52.59.194.203</t>
+    <t>3.120.31.57</t>
   </si>
   <si>
     <t>ולדימיר טושקו</t>
   </si>
   <si>
-    <t>18.195.104.110</t>
+    <t>18.185.130.209</t>
   </si>
   <si>
     <t>איוון שרבינין</t>
   </si>
   <si>
-    <t>35.158.118.125</t>
+    <t>18.184.165.172</t>
   </si>
   <si>
     <t>יבגני אוקליסט</t>
   </si>
   <si>
-    <t>18.194.45.49</t>
+    <t>54.93.111.198</t>
   </si>
   <si>
     <t>אלעד פרידמן</t>
   </si>
   <si>
-    <t>54.93.231.23</t>
+    <t>35.159.46.249</t>
   </si>
   <si>
     <t>רפי רפאל</t>
   </si>
   <si>
-    <t>54.93.104.214</t>
+    <t>52.59.193.235</t>
   </si>
   <si>
     <t>ויקי כחלון</t>
   </si>
   <si>
-    <t>35.159.51.157</t>
+    <t>52.59.254.216</t>
   </si>
   <si>
     <t>בן נהון</t>
   </si>
   <si>
-    <t>18.195.13.124</t>
+    <t>54.93.99.28</t>
   </si>
   <si>
     <t>שמעון מימון</t>
   </si>
   <si>
-    <t>18.184.142.78</t>
+    <t>35.158.151.46</t>
   </si>
   <si>
     <t>מאור שרבי</t>
   </si>
   <si>
-    <t>54.93.89.205</t>
+    <t>18.185.114.93</t>
   </si>
   <si>
     <t>אולג גטין</t>
   </si>
   <si>
-    <t>54.93.38.201</t>
+    <t>52.59.211.68</t>
   </si>
   <si>
     <t>פבל איבשצ'נקו</t>
   </si>
   <si>
-    <t>52.59.119.76</t>
+    <t>54.93.229.197</t>
   </si>
   <si>
     <t>יורי מנוחין</t>
   </si>
   <si>
-    <t>54.93.98.15</t>
+    <t>18.196.101.134</t>
   </si>
   <si>
     <t>דן מרדכי</t>
   </si>
   <si>
-    <t>54.93.41.85</t>
+    <t>52.59.213.188</t>
   </si>
   <si>
     <t>מקסים סמירין</t>
   </si>
   <si>
-    <t>35.157.119.246</t>
+    <t>18.185.120.154</t>
   </si>
   <si>
     <t>אלעד עובדיה</t>
   </si>
   <si>
-    <t>52.59.239.199</t>
+    <t>18.195.230.147</t>
   </si>
   <si>
     <t>עידן הרוש</t>
   </si>
   <si>
-    <t>18.196.206.199</t>
+    <t>35.158.139.34</t>
   </si>
   <si>
     <t>שניר גואטה</t>
   </si>
   <si>
-    <t>18.185.83.175</t>
+    <t>18.195.101.106</t>
   </si>
   <si>
     <t>איתמר רוזנברג</t>
   </si>
   <si>
-    <t>18.194.33.157</t>
+    <t>52.59.243.105</t>
   </si>
   <si>
     <t>לוני נמר</t>
   </si>
   <si>
-    <t>52.59.217.64</t>
+    <t>18.185.123.21</t>
   </si>
   <si>
     <t>שרונה מירון</t>
   </si>
   <si>
-    <t>54.93.233.131</t>
+    <t>18.197.115.21</t>
   </si>
   <si>
     <t>גיא אנדלמן</t>
   </si>
   <si>
-    <t>3.120.32.116</t>
+    <t>52.57.148.49</t>
   </si>
   <si>
     <t>רעי ביטון</t>
   </si>
   <si>
-    <t>18.184.152.228</t>
+    <t>18.185.54.229</t>
   </si>
   <si>
     <t>אוהד קולסקי</t>
   </si>
   <si>
-    <t>18.185.124.141</t>
+    <t>18.185.139.211</t>
   </si>
   <si>
     <t>אור חסון</t>
   </si>
   <si>
-    <t>35.156.114.162</t>
+    <t>18.194.88.82</t>
   </si>
   <si>
     <t>שון חי פז</t>
   </si>
   <si>
-    <t>3.120.115.50</t>
+    <t>18.184.8.9</t>
   </si>
   <si>
     <t>רותם אפרימוביץ'</t>
   </si>
   <si>
-    <t>18.185.75.44</t>
+    <t>18.196.7.162</t>
   </si>
   <si>
     <t>Env #28</t>
   </si>
   <si>
-    <t>52.59.194.72</t>
+    <t>52.57.78.110</t>
   </si>
   <si>
     <t>Env #29</t>
   </si>
   <si>
-    <t>52.29.65.105</t>
+    <t>3.120.115.234</t>
   </si>
 </sst>
 </file>

--- a/machines.xlsx
+++ b/machines.xlsx
@@ -37,175 +37,175 @@
     <t>https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem</t>
   </si>
   <si>
-    <t>3.120.31.57</t>
+    <t>35.158.242.66</t>
   </si>
   <si>
     <t>ולדימיר טושקו</t>
   </si>
   <si>
-    <t>18.185.130.209</t>
+    <t>52.57.79.205</t>
   </si>
   <si>
     <t>איוון שרבינין</t>
   </si>
   <si>
-    <t>18.184.165.172</t>
+    <t>3.120.130.182</t>
   </si>
   <si>
     <t>יבגני אוקליסט</t>
   </si>
   <si>
-    <t>54.93.111.198</t>
+    <t>18.194.207.116</t>
   </si>
   <si>
     <t>אלעד פרידמן</t>
   </si>
   <si>
-    <t>35.159.46.249</t>
+    <t>18.184.60.50</t>
   </si>
   <si>
     <t>רפי רפאל</t>
   </si>
   <si>
-    <t>52.59.193.235</t>
+    <t>18.195.114.45</t>
   </si>
   <si>
     <t>ויקי כחלון</t>
   </si>
   <si>
-    <t>52.59.254.216</t>
+    <t>18.184.60.87</t>
   </si>
   <si>
     <t>בן נהון</t>
   </si>
   <si>
-    <t>54.93.99.28</t>
+    <t>52.59.242.34</t>
   </si>
   <si>
     <t>שמעון מימון</t>
   </si>
   <si>
-    <t>35.158.151.46</t>
+    <t>18.194.45.24</t>
   </si>
   <si>
     <t>מאור שרבי</t>
   </si>
   <si>
-    <t>18.185.114.93</t>
+    <t>52.59.253.184</t>
   </si>
   <si>
     <t>אולג גטין</t>
   </si>
   <si>
-    <t>52.59.211.68</t>
+    <t>54.93.173.63</t>
   </si>
   <si>
     <t>פבל איבשצ'נקו</t>
   </si>
   <si>
-    <t>54.93.229.197</t>
+    <t>18.185.96.63</t>
   </si>
   <si>
     <t>יורי מנוחין</t>
   </si>
   <si>
-    <t>18.196.101.134</t>
+    <t>54.93.216.203</t>
   </si>
   <si>
     <t>דן מרדכי</t>
   </si>
   <si>
-    <t>52.59.213.188</t>
+    <t>18.184.222.93</t>
   </si>
   <si>
     <t>מקסים סמירין</t>
   </si>
   <si>
-    <t>18.185.120.154</t>
+    <t>3.120.133.186</t>
   </si>
   <si>
     <t>אלעד עובדיה</t>
   </si>
   <si>
-    <t>18.195.230.147</t>
+    <t>18.185.85.123</t>
   </si>
   <si>
     <t>עידן הרוש</t>
   </si>
   <si>
-    <t>35.158.139.34</t>
+    <t>54.93.99.13</t>
   </si>
   <si>
     <t>שניר גואטה</t>
   </si>
   <si>
-    <t>18.195.101.106</t>
+    <t>3.120.32.123</t>
   </si>
   <si>
     <t>איתמר רוזנברג</t>
   </si>
   <si>
-    <t>52.59.243.105</t>
+    <t>35.159.33.56</t>
   </si>
   <si>
     <t>לוני נמר</t>
   </si>
   <si>
-    <t>18.185.123.21</t>
+    <t>35.159.33.22</t>
   </si>
   <si>
     <t>שרונה מירון</t>
   </si>
   <si>
-    <t>18.197.115.21</t>
+    <t>52.58.122.189</t>
   </si>
   <si>
     <t>גיא אנדלמן</t>
   </si>
   <si>
-    <t>52.57.148.49</t>
+    <t>35.158.139.69</t>
   </si>
   <si>
     <t>רעי ביטון</t>
   </si>
   <si>
-    <t>18.185.54.229</t>
+    <t>18.194.75.64</t>
   </si>
   <si>
     <t>אוהד קולסקי</t>
   </si>
   <si>
-    <t>18.185.139.211</t>
+    <t>52.58.205.74</t>
   </si>
   <si>
     <t>אור חסון</t>
   </si>
   <si>
-    <t>18.194.88.82</t>
+    <t>3.120.132.100</t>
   </si>
   <si>
     <t>שון חי פז</t>
   </si>
   <si>
-    <t>18.184.8.9</t>
+    <t>35.159.33.21</t>
   </si>
   <si>
     <t>רותם אפרימוביץ'</t>
   </si>
   <si>
-    <t>18.196.7.162</t>
+    <t>18.194.249.155</t>
   </si>
   <si>
     <t>Env #28</t>
   </si>
   <si>
-    <t>52.57.78.110</t>
+    <t>35.157.176.213</t>
   </si>
   <si>
     <t>Env #29</t>
   </si>
   <si>
-    <t>3.120.115.234</t>
+    <t>52.29.149.39</t>
   </si>
 </sst>
 </file>

--- a/machines.xlsx
+++ b/machines.xlsx
@@ -37,175 +37,175 @@
     <t>https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem</t>
   </si>
   <si>
-    <t>54.93.35.126</t>
+    <t>18.197.109.214</t>
   </si>
   <si>
     <t>ולדימיר טושקו</t>
   </si>
   <si>
-    <t>52.59.204.121</t>
+    <t>18.185.126.156</t>
   </si>
   <si>
     <t>איוון שרבינין</t>
   </si>
   <si>
-    <t>18.185.102.25</t>
+    <t>18.184.241.244</t>
   </si>
   <si>
     <t>יבגני אוקליסט</t>
   </si>
   <si>
-    <t>54.93.41.67</t>
+    <t>18.185.132.133</t>
   </si>
   <si>
     <t>אלעד פרידמן</t>
   </si>
   <si>
-    <t>3.120.131.156</t>
+    <t>3.120.157.17</t>
   </si>
   <si>
     <t>רפי רפאל</t>
   </si>
   <si>
-    <t>52.59.242.128</t>
+    <t>18.196.62.22</t>
   </si>
   <si>
     <t>ויקי כחלון</t>
   </si>
   <si>
-    <t>18.197.39.228</t>
+    <t>54.93.235.142</t>
   </si>
   <si>
     <t>בן נהון</t>
   </si>
   <si>
-    <t>3.120.31.243</t>
+    <t>54.93.112.217</t>
   </si>
   <si>
     <t>שמעון מימון</t>
   </si>
   <si>
-    <t>3.120.138.182</t>
+    <t>18.197.109.237</t>
   </si>
   <si>
     <t>מאור שרבי</t>
   </si>
   <si>
-    <t>18.185.117.63</t>
+    <t>18.195.242.30</t>
   </si>
   <si>
     <t>אולג גטין</t>
   </si>
   <si>
-    <t>52.28.12.247</t>
+    <t>18.184.164.144</t>
   </si>
   <si>
     <t>פבל איבשצ'נקו</t>
   </si>
   <si>
-    <t>54.93.232.175</t>
+    <t>18.185.126.143</t>
   </si>
   <si>
     <t>יורי מנוחין</t>
   </si>
   <si>
-    <t>18.197.199.49</t>
+    <t>54.93.169.86</t>
   </si>
   <si>
     <t>דן מרדכי</t>
   </si>
   <si>
-    <t>3.120.159.45</t>
+    <t>3.120.157.51</t>
   </si>
   <si>
     <t>מקסים סמירין</t>
   </si>
   <si>
-    <t>18.194.11.242</t>
+    <t>18.195.170.227</t>
   </si>
   <si>
     <t>אלעד עובדיה</t>
   </si>
   <si>
-    <t>3.120.132.79</t>
+    <t>18.185.116.29</t>
   </si>
   <si>
     <t>עידן הרוש</t>
   </si>
   <si>
-    <t>18.184.211.92</t>
+    <t>18.184.14.148</t>
   </si>
   <si>
     <t>שניר גואטה</t>
   </si>
   <si>
-    <t>18.197.152.183</t>
+    <t>52.59.226.43</t>
   </si>
   <si>
     <t>איתמר רוזנברג</t>
   </si>
   <si>
-    <t>52.28.53.216</t>
+    <t>52.58.237.57</t>
   </si>
   <si>
     <t>לוני נמר</t>
   </si>
   <si>
-    <t>52.59.254.183</t>
+    <t>35.158.95.12</t>
   </si>
   <si>
     <t>שרונה מירון</t>
   </si>
   <si>
-    <t>18.184.223.163</t>
+    <t>52.59.68.137</t>
   </si>
   <si>
     <t>גיא אנדלמן</t>
   </si>
   <si>
-    <t>18.185.120.161</t>
+    <t>35.158.194.197</t>
   </si>
   <si>
     <t>רעי ביטון</t>
   </si>
   <si>
-    <t>35.159.52.95</t>
+    <t>18.184.189.124</t>
   </si>
   <si>
     <t>אוהד קולסקי</t>
   </si>
   <si>
-    <t>54.93.43.123</t>
+    <t>18.185.130.209</t>
   </si>
   <si>
     <t>אור חסון</t>
   </si>
   <si>
-    <t>18.195.51.52</t>
+    <t>54.93.248.72</t>
   </si>
   <si>
     <t>שון חי פז</t>
   </si>
   <si>
-    <t>18.185.75.85</t>
+    <t>18.185.131.1</t>
   </si>
   <si>
     <t>רותם אפרימוביץ'</t>
   </si>
   <si>
-    <t>35.158.140.52</t>
+    <t>18.196.109.47</t>
   </si>
   <si>
     <t>Env #28</t>
   </si>
   <si>
-    <t>18.197.100.202</t>
+    <t>18.184.14.55</t>
   </si>
   <si>
     <t>Env #29</t>
   </si>
   <si>
-    <t>18.195.169.42</t>
+    <t>18.195.101.174</t>
   </si>
 </sst>
 </file>

--- a/machines.xlsx
+++ b/machines.xlsx
@@ -37,175 +37,175 @@
     <t>https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem</t>
   </si>
   <si>
-    <t>54.93.237.113</t>
+    <t>18.196.132.163</t>
   </si>
   <si>
     <t>ולדימיר טושקו</t>
   </si>
   <si>
-    <t>18.195.178.237</t>
+    <t>18.196.103.206</t>
   </si>
   <si>
     <t>איוון שרבינין</t>
   </si>
   <si>
-    <t>18.185.101.107</t>
+    <t>52.57.252.178</t>
   </si>
   <si>
     <t>יבגני אוקליסט</t>
   </si>
   <si>
-    <t>35.159.7.150</t>
+    <t>18.184.247.57</t>
   </si>
   <si>
     <t>אלעד פרידמן</t>
   </si>
   <si>
-    <t>52.58.189.225</t>
+    <t>18.195.53.82</t>
   </si>
   <si>
     <t>רפי רפאל</t>
   </si>
   <si>
-    <t>54.93.47.75</t>
+    <t>18.197.90.121</t>
   </si>
   <si>
     <t>ויקי כחלון</t>
   </si>
   <si>
-    <t>18.185.123.198</t>
+    <t>18.195.167.112</t>
   </si>
   <si>
     <t>בן נהון</t>
   </si>
   <si>
-    <t>52.59.241.142</t>
+    <t>3.120.139.104</t>
   </si>
   <si>
     <t>שמעון מימון</t>
   </si>
   <si>
-    <t>18.184.79.50</t>
+    <t>18.197.129.134</t>
   </si>
   <si>
     <t>מאור שרבי</t>
   </si>
   <si>
-    <t>18.185.127.255</t>
+    <t>18.184.19.143</t>
   </si>
   <si>
     <t>אולג גטין</t>
   </si>
   <si>
-    <t>35.157.150.152</t>
+    <t>54.93.232.254</t>
   </si>
   <si>
     <t>פבל איבשצ'נקו</t>
   </si>
   <si>
-    <t>52.59.206.39</t>
+    <t>18.195.124.160</t>
   </si>
   <si>
     <t>יורי מנוחין</t>
   </si>
   <si>
-    <t>18.194.33.235</t>
+    <t>52.58.156.172</t>
   </si>
   <si>
     <t>דן מרדכי</t>
   </si>
   <si>
-    <t>35.157.7.248</t>
+    <t>3.120.31.130</t>
   </si>
   <si>
     <t>מקסים סמירין</t>
   </si>
   <si>
-    <t>52.58.24.204</t>
+    <t>18.184.105.138</t>
   </si>
   <si>
     <t>אלעד עובדיה</t>
   </si>
   <si>
-    <t>18.194.42.186</t>
+    <t>54.93.228.36</t>
   </si>
   <si>
     <t>עידן הרוש</t>
   </si>
   <si>
-    <t>18.184.233.187</t>
+    <t>35.158.119.254</t>
   </si>
   <si>
     <t>שניר גואטה</t>
   </si>
   <si>
-    <t>52.29.0.96</t>
+    <t>52.59.255.149</t>
   </si>
   <si>
     <t>איתמר רוזנברג</t>
   </si>
   <si>
-    <t>3.120.16.80</t>
+    <t>18.185.38.193</t>
   </si>
   <si>
     <t>לוני נמר</t>
   </si>
   <si>
-    <t>18.197.210.119</t>
+    <t>18.184.104.51</t>
   </si>
   <si>
     <t>שרונה מירון</t>
   </si>
   <si>
-    <t>18.194.249.95</t>
+    <t>52.59.219.128</t>
   </si>
   <si>
     <t>גיא אנדלמן</t>
   </si>
   <si>
-    <t>18.184.4.21</t>
+    <t>18.194.122.240</t>
   </si>
   <si>
     <t>רעי ביטון</t>
   </si>
   <si>
-    <t>52.57.68.23</t>
+    <t>3.120.128.201</t>
   </si>
   <si>
     <t>אוהד קולסקי</t>
   </si>
   <si>
-    <t>18.184.215.163</t>
+    <t>18.185.32.175</t>
   </si>
   <si>
     <t>אור חסון</t>
   </si>
   <si>
-    <t>54.93.234.167</t>
+    <t>18.194.250.147</t>
   </si>
   <si>
     <t>שון חי פז</t>
   </si>
   <si>
-    <t>35.159.24.242</t>
+    <t>18.184.164.23</t>
   </si>
   <si>
     <t>רותם אפרימוביץ'</t>
   </si>
   <si>
-    <t>18.185.101.241</t>
+    <t>52.59.230.165</t>
   </si>
   <si>
     <t>Env #28</t>
   </si>
   <si>
-    <t>18.195.221.113</t>
+    <t>54.93.126.94</t>
   </si>
   <si>
     <t>Env #29</t>
   </si>
   <si>
-    <t>18.184.192.137</t>
+    <t>35.159.21.5</t>
   </si>
 </sst>
 </file>

--- a/machines.xlsx
+++ b/machines.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64969AC0-E2F7-4FA0-8021-E8FCD26F7A30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>#</t>
   </si>
@@ -37,182 +46,182 @@
     <t>https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem</t>
   </si>
   <si>
-    <t>18.196.132.163</t>
+    <t>52.59.219.49</t>
   </si>
   <si>
     <t>ולדימיר טושקו</t>
   </si>
   <si>
-    <t>18.196.103.206</t>
+    <t>18.185.118.48</t>
   </si>
   <si>
     <t>איוון שרבינין</t>
   </si>
   <si>
-    <t>52.57.252.178</t>
+    <t>52.28.40.227</t>
   </si>
   <si>
     <t>יבגני אוקליסט</t>
   </si>
   <si>
-    <t>18.184.247.57</t>
+    <t>54.93.215.205</t>
   </si>
   <si>
     <t>אלעד פרידמן</t>
   </si>
   <si>
-    <t>18.195.53.82</t>
+    <t>35.159.52.30</t>
   </si>
   <si>
     <t>רפי רפאל</t>
   </si>
   <si>
-    <t>18.197.90.121</t>
+    <t>52.57.170.78</t>
   </si>
   <si>
     <t>ויקי כחלון</t>
   </si>
   <si>
-    <t>18.195.167.112</t>
+    <t>18.194.236.84</t>
   </si>
   <si>
     <t>בן נהון</t>
   </si>
   <si>
-    <t>3.120.139.104</t>
+    <t>18.185.32.9</t>
   </si>
   <si>
     <t>שמעון מימון</t>
   </si>
   <si>
-    <t>18.197.129.134</t>
+    <t>54.93.116.118</t>
   </si>
   <si>
     <t>מאור שרבי</t>
   </si>
   <si>
-    <t>18.184.19.143</t>
+    <t>18.194.208.188</t>
   </si>
   <si>
     <t>אולג גטין</t>
   </si>
   <si>
-    <t>54.93.232.254</t>
+    <t>3.120.115.14</t>
   </si>
   <si>
     <t>פבל איבשצ'נקו</t>
   </si>
   <si>
-    <t>18.195.124.160</t>
+    <t>3.120.14.32</t>
   </si>
   <si>
     <t>יורי מנוחין</t>
   </si>
   <si>
-    <t>52.58.156.172</t>
+    <t>54.93.176.148</t>
   </si>
   <si>
     <t>דן מרדכי</t>
   </si>
   <si>
-    <t>3.120.31.130</t>
+    <t>18.195.20.157</t>
   </si>
   <si>
     <t>מקסים סמירין</t>
   </si>
   <si>
-    <t>18.184.105.138</t>
+    <t>35.158.209.117</t>
   </si>
   <si>
     <t>אלעד עובדיה</t>
   </si>
   <si>
-    <t>54.93.228.36</t>
+    <t>18.185.28.165</t>
   </si>
   <si>
     <t>עידן הרוש</t>
   </si>
   <si>
-    <t>35.158.119.254</t>
+    <t>54.93.102.183</t>
   </si>
   <si>
     <t>שניר גואטה</t>
   </si>
   <si>
-    <t>52.59.255.149</t>
+    <t>52.59.250.22</t>
   </si>
   <si>
     <t>איתמר רוזנברג</t>
   </si>
   <si>
-    <t>18.185.38.193</t>
+    <t>35.159.18.126</t>
   </si>
   <si>
     <t>לוני נמר</t>
   </si>
   <si>
-    <t>18.184.104.51</t>
+    <t>18.184.187.33</t>
   </si>
   <si>
     <t>שרונה מירון</t>
   </si>
   <si>
-    <t>52.59.219.128</t>
+    <t>18.184.245.177</t>
   </si>
   <si>
     <t>גיא אנדלמן</t>
   </si>
   <si>
-    <t>18.194.122.240</t>
+    <t>18.197.190.134</t>
   </si>
   <si>
     <t>רעי ביטון</t>
   </si>
   <si>
-    <t>3.120.128.201</t>
+    <t>35.158.214.87</t>
   </si>
   <si>
     <t>אוהד קולסקי</t>
   </si>
   <si>
-    <t>18.185.32.175</t>
+    <t>18.184.8.71</t>
   </si>
   <si>
     <t>אור חסון</t>
   </si>
   <si>
-    <t>18.194.250.147</t>
+    <t>35.156.29.151</t>
   </si>
   <si>
     <t>שון חי פז</t>
   </si>
   <si>
-    <t>18.184.164.23</t>
+    <t>54.93.253.199</t>
   </si>
   <si>
     <t>רותם אפרימוביץ'</t>
   </si>
   <si>
-    <t>52.59.230.165</t>
+    <t>52.59.214.9</t>
   </si>
   <si>
     <t>Env #28</t>
   </si>
   <si>
-    <t>54.93.126.94</t>
+    <t>18.185.53.18</t>
   </si>
   <si>
     <t>Env #29</t>
   </si>
   <si>
-    <t>35.159.21.5</t>
+    <t>18.185.97.195</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -220,25 +229,18 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <b/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="1"/>
       <u/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
-      <u/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,32 +265,340 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyFill="1" fillId="2"/>
-    <xf applyFont="1" fontId="2"/>
-    <xf applyFont="1" fontId="3"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -305,530 +615,530 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" address="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem"/>
+    <hyperlink ref="D2" r:id="rId1" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" tooltip="https://s3.eu-central-1.amazonaws.com/jb-artifacts/jb_ubuntu.pem" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
